--- a/Excel/Hackathon.xlsx
+++ b/Excel/Hackathon.xlsx
@@ -56,31 +56,31 @@
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 1,89,466</t>
-  </si>
-  <si>
-    <t>₹ 2,57,826</t>
-  </si>
-  <si>
-    <t>₹ 38,500</t>
-  </si>
-  <si>
-    <t>₹ 4,85,792</t>
-  </si>
-  <si>
-    <t>₹ 30,20,534</t>
-  </si>
-  <si>
-    <t>5.9%</t>
+    <t>₹ 1,71,591</t>
+  </si>
+  <si>
+    <t>₹ 2,35,038</t>
+  </si>
+  <si>
+    <t>₹ 35,000</t>
+  </si>
+  <si>
+    <t>₹ 4,41,629</t>
+  </si>
+  <si>
+    <t>₹ 30,38,409</t>
+  </si>
+  <si>
+    <t>5.35%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 2,25,248</t>
-  </si>
-  <si>
-    <t>₹ 2,62,707</t>
+    <t>₹ 2,23,571</t>
+  </si>
+  <si>
+    <t>₹ 2,64,384</t>
   </si>
   <si>
     <t>₹ 42,000</t>
@@ -89,142 +89,142 @@
     <t>₹ 5,29,955</t>
   </si>
   <si>
-    <t>₹ 27,95,286</t>
-  </si>
-  <si>
-    <t>12.92%</t>
+    <t>₹ 28,14,838</t>
+  </si>
+  <si>
+    <t>12.31%</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 2,46,378</t>
-  </si>
-  <si>
-    <t>₹ 2,41,577</t>
-  </si>
-  <si>
-    <t>₹ 25,48,908</t>
-  </si>
-  <si>
-    <t>20.59%</t>
+    <t>₹ 2,44,544</t>
+  </si>
+  <si>
+    <t>₹ 2,43,411</t>
+  </si>
+  <si>
+    <t>₹ 25,70,294</t>
+  </si>
+  <si>
+    <t>19.93%</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 2,69,490</t>
-  </si>
-  <si>
-    <t>₹ 2,18,465</t>
-  </si>
-  <si>
-    <t>₹ 22,79,418</t>
-  </si>
-  <si>
-    <t>28.99%</t>
+    <t>₹ 2,67,484</t>
+  </si>
+  <si>
+    <t>₹ 2,20,471</t>
+  </si>
+  <si>
+    <t>₹ 23,02,810</t>
+  </si>
+  <si>
+    <t>28.26%</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 2,94,770</t>
-  </si>
-  <si>
-    <t>₹ 1,93,185</t>
-  </si>
-  <si>
-    <t>₹ 19,84,648</t>
-  </si>
-  <si>
-    <t>38.17%</t>
+    <t>₹ 2,92,576</t>
+  </si>
+  <si>
+    <t>₹ 1,95,380</t>
+  </si>
+  <si>
+    <t>₹ 20,10,234</t>
+  </si>
+  <si>
+    <t>37.38%</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 3,22,421</t>
-  </si>
-  <si>
-    <t>₹ 1,65,534</t>
-  </si>
-  <si>
-    <t>₹ 16,62,227</t>
-  </si>
-  <si>
-    <t>48.22%</t>
+    <t>₹ 3,20,021</t>
+  </si>
+  <si>
+    <t>₹ 1,67,934</t>
+  </si>
+  <si>
+    <t>₹ 16,90,213</t>
+  </si>
+  <si>
+    <t>47.35%</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 3,52,667</t>
-  </si>
-  <si>
-    <t>₹ 1,35,288</t>
-  </si>
-  <si>
-    <t>₹ 13,09,560</t>
-  </si>
-  <si>
-    <t>59.2%</t>
+    <t>₹ 3,50,041</t>
+  </si>
+  <si>
+    <t>₹ 1,37,914</t>
+  </si>
+  <si>
+    <t>₹ 13,40,172</t>
+  </si>
+  <si>
+    <t>58.25%</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 3,85,749</t>
-  </si>
-  <si>
-    <t>₹ 1,02,206</t>
-  </si>
-  <si>
-    <t>₹ 9,23,811</t>
-  </si>
-  <si>
-    <t>71.22%</t>
+    <t>₹ 3,82,878</t>
+  </si>
+  <si>
+    <t>₹ 1,05,077</t>
+  </si>
+  <si>
+    <t>₹ 9,57,294</t>
+  </si>
+  <si>
+    <t>70.18%</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 4,21,935</t>
-  </si>
-  <si>
-    <t>₹ 66,020</t>
-  </si>
-  <si>
-    <t>₹ 5,01,876</t>
-  </si>
-  <si>
-    <t>84.37%</t>
+    <t>₹ 4,18,794</t>
+  </si>
+  <si>
+    <t>₹ 69,161</t>
+  </si>
+  <si>
+    <t>₹ 5,38,500</t>
+  </si>
+  <si>
+    <t>83.22%</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 4,61,516</t>
-  </si>
-  <si>
-    <t>₹ 26,439</t>
-  </si>
-  <si>
-    <t>₹ 40,360</t>
-  </si>
-  <si>
-    <t>98.74%</t>
+    <t>₹ 4,58,080</t>
+  </si>
+  <si>
+    <t>₹ 29,875</t>
+  </si>
+  <si>
+    <t>₹ 80,420</t>
+  </si>
+  <si>
+    <t>97.49%</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 303</t>
-  </si>
-  <si>
-    <t>₹ 3,500</t>
-  </si>
-  <si>
-    <t>₹ 44,163</t>
+    <t>₹ 906</t>
+  </si>
+  <si>
+    <t>₹ 7,000</t>
+  </si>
+  <si>
+    <t>₹ 88,326</t>
   </si>
   <si>
     <t>₹ 0</t>
